--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABC/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABC/15/seed5/result_data_RandomForest.xlsx
@@ -482,10 +482,10 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>6.433700000000004</v>
+        <v>6.944900000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.8057</v>
+        <v>-11.7648</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.66750000000002</v>
+        <v>-21.60880000000001</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.5594</v>
+        <v>6.615399999999997</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -774,7 +774,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-11.743</v>
+        <v>-11.66970000000001</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -859,7 +859,7 @@
         <v>5.23</v>
       </c>
       <c r="C25" t="n">
-        <v>-13.15849999999999</v>
+        <v>-13.3785</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>3.942200000000004</v>
+        <v>3.913300000000003</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.52249999999999</v>
+        <v>-21.54009999999999</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -944,7 +944,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-13.25099999999999</v>
+        <v>-13.30799999999999</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>4.902500000000003</v>
+        <v>5.421900000000001</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.36820000000001</v>
+        <v>-21.3762</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>9.120600000000007</v>
+        <v>9.345400000000005</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-19.5126</v>
+        <v>-19.6307</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.882200000000005</v>
+        <v>8.803600000000003</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.5182</v>
+        <v>-19.5406</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-13.48039999999999</v>
+        <v>-13.19249999999999</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>6.075599999999997</v>
+        <v>6.265399999999997</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.59000000000001</v>
+        <v>-21.4593</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1233,7 +1233,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.10479999999999</v>
+        <v>-11.9326</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.196500000000001</v>
+        <v>5.028500000000002</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.65839999999999</v>
+        <v>-21.56109999999999</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.36600000000002</v>
+        <v>-22.1936</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-22.0583</v>
+        <v>-22.04460000000001</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.833299999999993</v>
+        <v>4.932899999999996</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1420,7 +1420,7 @@
         <v>3.7</v>
       </c>
       <c r="C58" t="n">
-        <v>-13.1145</v>
+        <v>-13.3065</v>
       </c>
       <c r="D58" t="n">
         <v>-7.51</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.52369999999997</v>
+        <v>-21.53319999999998</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.60989999999997</v>
+        <v>-21.67449999999998</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.76810000000001</v>
+        <v>-21.914</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1760,7 +1760,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-11.15640000000001</v>
+        <v>-11.10820000000001</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>6.146599999999999</v>
+        <v>6.574599999999999</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.62889999999999</v>
+        <v>-21.6131</v>
       </c>
       <c r="B83" t="n">
-        <v>5.264800000000004</v>
+        <v>5.389900000000004</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1862,7 +1862,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-14.17089999999999</v>
+        <v>-14.05359999999999</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-22.0354</v>
+        <v>-21.9938</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
@@ -1947,7 +1947,7 @@
         <v>4.69</v>
       </c>
       <c r="C89" t="n">
-        <v>-11.2123</v>
+        <v>-10.9352</v>
       </c>
       <c r="D89" t="n">
         <v>-7</v>
@@ -1975,13 +1975,13 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.48240000000001</v>
+        <v>-21.24550000000001</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
       </c>
       <c r="C91" t="n">
-        <v>-11.1071</v>
+        <v>-10.7346</v>
       </c>
       <c r="D91" t="n">
         <v>-5.79</v>
@@ -1998,7 +1998,7 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.56459999999999</v>
+        <v>-11.07819999999999</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.20199999999999</v>
+        <v>-21.24479999999999</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2066,7 +2066,7 @@
         <v>5.8</v>
       </c>
       <c r="C96" t="n">
-        <v>-13.0857</v>
+        <v>-13.2759</v>
       </c>
       <c r="D96" t="n">
         <v>-8.529999999999999</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-20.18529999999999</v>
+        <v>-20.32029999999998</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.287799999999997</v>
+        <v>5.1115</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
@@ -2165,10 +2165,10 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.177600000000002</v>
+        <v>8.237000000000002</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.4146</v>
+        <v>-13.5615</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
